--- a/merch_total.xlsx
+++ b/merch_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Январь</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Февраль</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Март</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Апрель</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Май</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Июнь</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Июль</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Август</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Сентябрь</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Октябрь</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Ноябрь</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Доставка</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
@@ -511,70 +516,27 @@
           <t>None</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>17100</t>
-        </is>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>14000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>600</v>
+      </c>
+      <c r="O2" t="n">
+        <v>17100</v>
       </c>
     </row>
     <row r="3">
@@ -583,70 +545,27 @@
           <t>Александр Иванов</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C3" t="n">
+        <v>900</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>600</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/merch_total.xlsx
+++ b/merch_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,55 +456,10 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Доставка</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Май</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Июнь</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Июль</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Август</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Сентябрь</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Октябрь</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Ноябрь</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Декабрь</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Доставка</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
@@ -513,60 +468,128 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Григорьев Павел Анатольевич</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>14000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2500</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>600</v>
-      </c>
-      <c r="O2" t="n">
-        <v>17100</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Александр Иванов</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C3" t="n">
-        <v>900</v>
-      </c>
+          <t>Михайлов Артем Викторович</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>600</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4000</v>
-      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Кузнецов Игорь Дмитриевич</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Смирнова Елена Александровна</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Петрова Анна Сергеевна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Жукова Ольга Владимировна</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Соколова Мария Алексеевна</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Козлов Дмитрий Валерьевич</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Александр Иванов</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Лебедева Алина Игоревна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
